--- a/Data/Svar fra spørgeskema.xlsx
+++ b/Data/Svar fra spørgeskema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Dropbox\Forsvaret\HO\Afgangsprojekt\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF0514E-4CDA-4742-8509-14A06E9613AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D08C7A5-02EC-4E5E-9C7B-E1A666131FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2100" windowWidth="13755" windowHeight="11385" xr2:uid="{E2C64F1B-C58A-484E-84F8-095354051A0A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2C64F1B-C58A-484E-84F8-095354051A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -137,8 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657305C1-7FA4-478C-82C4-9772360F9A8F}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -727,6 +728,10 @@
       <c r="C19">
         <v>0</v>
       </c>
+      <c r="D19" s="1">
+        <f>C19/106*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -738,6 +743,10 @@
       <c r="C20">
         <v>0</v>
       </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:D28" si="0">C20/106*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -749,6 +758,10 @@
       <c r="C21">
         <v>1</v>
       </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94339622641509435</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -760,6 +773,10 @@
       <c r="C22">
         <v>4</v>
       </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7735849056603774</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -771,6 +788,10 @@
       <c r="C23">
         <v>3</v>
       </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8301886792452833</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -782,6 +803,10 @@
       <c r="C24">
         <v>8</v>
       </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>7.5471698113207548</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -793,6 +818,10 @@
       <c r="C25">
         <v>12</v>
       </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>11.320754716981133</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -804,6 +833,10 @@
       <c r="C26">
         <v>34</v>
       </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>32.075471698113205</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -815,6 +848,10 @@
       <c r="C27">
         <v>14</v>
       </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>13.20754716981132</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -826,6 +863,10 @@
       <c r="C28">
         <v>30</v>
       </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>28.30188679245283</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -837,6 +878,10 @@
       <c r="C29">
         <v>0</v>
       </c>
+      <c r="D29" s="1">
+        <f>C29/105*100</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -848,6 +893,10 @@
       <c r="C30">
         <v>1</v>
       </c>
+      <c r="D30" s="1">
+        <f t="shared" ref="D30:D38" si="1">C30/105*100</f>
+        <v>0.95238095238095244</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -859,6 +908,10 @@
       <c r="C31">
         <v>1</v>
       </c>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.95238095238095244</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -870,8 +923,12 @@
       <c r="C32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>13</v>
       </c>
@@ -881,8 +938,12 @@
       <c r="C33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7619047619047619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>13</v>
       </c>
@@ -892,8 +953,12 @@
       <c r="C34">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6190476190476195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>13</v>
       </c>
@@ -903,8 +968,12 @@
       <c r="C35">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>18.095238095238095</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>13</v>
       </c>
@@ -914,8 +983,12 @@
       <c r="C36">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>14.285714285714285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>13</v>
       </c>
@@ -925,8 +998,12 @@
       <c r="C37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5238095238095237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -935,6 +1012,10 @@
       </c>
       <c r="C38">
         <v>43</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>40.952380952380949</v>
       </c>
     </row>
   </sheetData>
